--- a/documents/data_struncure.xlsx
+++ b/documents/data_struncure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuya/FlutterProject/which/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FD86E-2300-2A48-9696-C85E2BEB9F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD40D0-DAC1-4245-84F3-730F00F5100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="11780" windowHeight="17200" xr2:uid="{49D1B019-8D9A-3640-A4F1-4528E130135A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{49D1B019-8D9A-3640-A4F1-4528E130135A}"/>
   </bookViews>
   <sheets>
     <sheet name="data_struncure" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>users</t>
     <phoneticPr fontId="18"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>vote1</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>reportQuestions</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -130,14 +126,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>savedQuestions</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>createQuestions</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>reportComment</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -179,6 +167,32 @@
   </si>
   <si>
     <t>hiddenFlg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>saved</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>votes</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>vote(1 or 2)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>←将来実装</t>
+    <rPh sb="1" eb="3">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>readed</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -347,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,11 +798,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CC7F82-E270-5741-BD93-BC8B59BA274C}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1181,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1205,7 +1228,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -1213,24 +1236,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
@@ -1240,12 +1263,12 @@
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1255,34 +1278,48 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>1</v>
       </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
         <v>4</v>
       </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1290,80 +1327,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1372,12 +1395,16 @@
       <c r="F27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="1"/>
@@ -1385,47 +1412,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>38</v>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="1"/>
@@ -1434,8 +1465,9 @@
       </c>
     </row>
     <row r="33" spans="3:6">
-      <c r="D33" t="s">
-        <v>35</v>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
@@ -1443,8 +1475,9 @@
       </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="D34" t="s">
-        <v>36</v>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
@@ -1452,30 +1485,33 @@
       </c>
     </row>
     <row r="35" spans="3:6">
-      <c r="D35" t="s">
-        <v>37</v>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="3:6">
-      <c r="D36" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="D37" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="3:6">
@@ -1486,7 +1522,7 @@
     </row>
     <row r="39" spans="3:6">
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -1506,7 +1542,7 @@
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
         <v>1</v>
@@ -1527,7 +1563,7 @@
     </row>
     <row r="44" spans="3:6">
       <c r="F44" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="3:6">
@@ -1537,7 +1573,7 @@
     </row>
     <row r="46" spans="3:6">
       <c r="F46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/documents/data_struncure.xlsx
+++ b/documents/data_struncure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuya/FlutterProject/which/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFD40D0-DAC1-4245-84F3-730F00F5100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CCBE73-C13F-DF41-B0FD-4F2EBC281810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{49D1B019-8D9A-3640-A4F1-4528E130135A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>users</t>
     <phoneticPr fontId="18"/>
@@ -195,6 +195,30 @@
     <t>readed</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>shards</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1~9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>watchCount</t>
+  </si>
+  <si>
+    <t>watchCount</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>readCount</t>
+  </si>
+  <si>
+    <t>answer1Count</t>
+  </si>
+  <si>
+    <t>answer2Count</t>
+  </si>
 </sst>
 </file>
 
@@ -361,7 +385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -806,6 +836,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CC7F82-E270-5741-BD93-BC8B59BA274C}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1331,45 +1364,66 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>1</v>
       </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>9</v>
       </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>10</v>
       </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" t="s">
         <v>11</v>
       </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" t="s">
+    <row r="26" spans="1:7">
+      <c r="B26" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" t="s">
-        <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>14</v>
@@ -1383,7 +1437,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -1401,7 +1455,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
@@ -1414,7 +1468,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
@@ -1427,7 +1481,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
@@ -1440,7 +1494,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -1453,7 +1507,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -1464,7 +1518,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>32</v>
@@ -1474,7 +1531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="2:6">
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>33</v>
@@ -1484,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="2:6">
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>34</v>
@@ -1494,7 +1551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="2:6">
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -1504,7 +1561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="2:6">
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -1514,13 +1571,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="2:6">
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="2:6">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -1532,12 +1589,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="2:6">
       <c r="D40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="2:6">
       <c r="D41" t="s">
         <v>18</v>
       </c>
@@ -1548,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:6">
+    <row r="42" spans="2:6">
       <c r="D42" t="s">
         <v>4</v>
       </c>
@@ -1556,22 +1613,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="2:6">
       <c r="F43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="2:6">
       <c r="F44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="2:6">
       <c r="F45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="2:6">
       <c r="F46" t="s">
         <v>28</v>
       </c>
